--- a/medicine/Premiers secours et secourisme/Colossus_(robot)/Colossus_(robot).xlsx
+++ b/medicine/Premiers secours et secourisme/Colossus_(robot)/Colossus_(robot).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Colossus est un robot-pompier téléopéré, fabriqué par l'entreprise française Shark Robotics[1]. Développé grâce au retour d'expérience de la Brigade de sapeurs-pompiers de Paris, il y est en service depuis 2017 et est aussi utilisé par les pompiers du SDIS de la Gironde[2].
+Colossus est un robot-pompier téléopéré, fabriqué par l'entreprise française Shark Robotics. Développé grâce au retour d'expérience de la Brigade de sapeurs-pompiers de Paris, il y est en service depuis 2017 et est aussi utilisé par les pompiers du SDIS de la Gironde.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le robot pompier Colossus[3] est fabriqué par la société française de robotique terrestre Shark Robotics[4], située à La Rochelle. Muni d'un canon à eau capable de propulser 2 500 litres par minute[5], il mesure 1,60 mètre de long et pèse 500 kilogrammes. Il est équipé de chenilles, qui lui permettent notamment de monter des escaliers, et est capable de tracter jusqu’à deux tonnes[2]. Outre éteindre des feux, il peut faire des relevés d'informations et de reconnaissance visuelle grâce à une caméra thermique embarquée[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le robot pompier Colossus est fabriqué par la société française de robotique terrestre Shark Robotics, située à La Rochelle. Muni d'un canon à eau capable de propulser 2 500 litres par minute, il mesure 1,60 mètre de long et pèse 500 kilogrammes. Il est équipé de chenilles, qui lui permettent notamment de monter des escaliers, et est capable de tracter jusqu’à deux tonnes. Outre éteindre des feux, il peut faire des relevés d'informations et de reconnaissance visuelle grâce à une caméra thermique embarquée.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Incendie de Notre-Dame de Paris</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En avril 2019, il est engagé à l'intérieur de la nef de la cathédrale Notre-Dame de Paris lors de l'incendie de celle-ci[2]. Selon Gabriel Plus, porte-parole des pompiers de Paris, le robot a permis « d'éteindre et de faire baisser la température à l'intérieur de la nef »[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En avril 2019, il est engagé à l'intérieur de la nef de la cathédrale Notre-Dame de Paris lors de l'incendie de celle-ci. Selon Gabriel Plus, porte-parole des pompiers de Paris, le robot a permis « d'éteindre et de faire baisser la température à l'intérieur de la nef ».
 </t>
         </is>
       </c>
